--- a/data/trans_orig/P44_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F877BC3-9E22-4751-A7A9-39F3E5C6C4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{771F5855-C18B-4347-B82D-C94B26AB777C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56F1B53A-EFD2-402F-B32A-665C5CE79B1E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3E40E620-3D7C-44B2-8F03-BDBF7F9ED861}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="345">
   <si>
     <t>Población según lo que opinan de tomar el sol en 2007 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -93,781 +93,778 @@
     <t>2,19%</t>
   </si>
   <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>Peligroso</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>Sano y peligroso</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>Sano</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>Muy sano</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>Peligroso</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>Sano y peligroso</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>Sano</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>Muy sano</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>0,95%</t>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,54%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,07%</t>
+    <t>1,1%</t>
   </si>
   <si>
     <t>0,03%</t>
@@ -876,79 +873,79 @@
     <t>4,91%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>4,3%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
     <t>5,52%</t>
   </si>
   <si>
     <t>26,27%</t>
   </si>
   <si>
-    <t>24,86%</t>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
   </si>
   <si>
     <t>27,85%</t>
   </si>
   <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>30,92%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>57,34%</t>
   </si>
   <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
   </si>
   <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
   </si>
   <si>
     <t>57,52%</t>
   </si>
   <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
   </si>
   <si>
     <t>11,16%</t>
@@ -957,31 +954,31 @@
     <t>10,16%</t>
   </si>
   <si>
-    <t>12,37%</t>
+    <t>12,38%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,55%</t>
+    <t>0,56%</t>
   </si>
   <si>
     <t>0,08%</t>
@@ -1021,9 +1018,6 @@
   </si>
   <si>
     <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
   </si>
   <si>
     <t>0,42%</t>
@@ -1489,7 +1483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB7E0A-9889-41D8-A784-5DBD422B3B88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57764D0A-3F37-4EE1-96E9-429F8358173D}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2176,13 +2170,13 @@
         <v>112223</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>56</v>
@@ -2191,13 +2185,13 @@
         <v>58810</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>164</v>
@@ -2206,13 +2200,13 @@
         <v>171033</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2221,13 @@
         <v>812</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2257,13 +2251,13 @@
         <v>812</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,7 +2313,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2337,7 +2331,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2352,7 +2346,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2382,13 +2376,13 @@
         <v>22894</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -2397,13 +2391,13 @@
         <v>25525</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -2412,13 +2406,13 @@
         <v>48420</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2427,13 @@
         <v>163803</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>165</v>
@@ -2448,13 +2442,13 @@
         <v>173370</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>320</v>
@@ -2463,13 +2457,13 @@
         <v>337173</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2478,13 @@
         <v>397676</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H21" s="7">
         <v>422</v>
@@ -2499,13 +2493,13 @@
         <v>441353</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="M21" s="7">
         <v>810</v>
@@ -2514,13 +2508,13 @@
         <v>839028</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2529,13 @@
         <v>52421</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -2550,13 +2544,13 @@
         <v>46993</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>93</v>
@@ -2565,13 +2559,13 @@
         <v>99414</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2580,13 @@
         <v>871</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2601,13 +2595,13 @@
         <v>981</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -2616,13 +2610,13 @@
         <v>1852</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,7 +2672,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2696,7 +2690,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2741,13 +2735,13 @@
         <v>23128</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -2756,13 +2750,13 @@
         <v>22921</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>45</v>
@@ -2771,13 +2765,13 @@
         <v>46050</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,13 +2786,13 @@
         <v>155371</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H27" s="7">
         <v>151</v>
@@ -2807,13 +2801,13 @@
         <v>155344</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M27" s="7">
         <v>296</v>
@@ -2822,13 +2816,13 @@
         <v>310715</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2837,13 @@
         <v>297873</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H28" s="7">
         <v>292</v>
@@ -2858,13 +2852,13 @@
         <v>299893</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>567</v>
@@ -2873,13 +2867,13 @@
         <v>597766</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2888,13 @@
         <v>39717</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -2909,13 +2903,13 @@
         <v>36684</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>74</v>
@@ -2924,13 +2918,13 @@
         <v>76400</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2939,13 @@
         <v>1149</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2960,13 +2954,13 @@
         <v>800</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2981,7 +2975,7 @@
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,7 +3031,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3055,7 +3049,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3070,7 +3064,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3085,7 +3079,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3094,13 @@
         <v>16646</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
@@ -3115,13 +3109,13 @@
         <v>26652</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M33" s="7">
         <v>44</v>
@@ -3130,13 +3124,13 @@
         <v>43298</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3145,13 @@
         <v>127548</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H34" s="7">
         <v>131</v>
@@ -3166,13 +3160,13 @@
         <v>133846</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M34" s="7">
         <v>259</v>
@@ -3181,13 +3175,13 @@
         <v>261394</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,13 +3196,13 @@
         <v>214597</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H35" s="7">
         <v>209</v>
@@ -3217,13 +3211,13 @@
         <v>213486</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M35" s="7">
         <v>427</v>
@@ -3232,13 +3226,13 @@
         <v>428083</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3247,13 @@
         <v>25994</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
@@ -3268,13 +3262,13 @@
         <v>28233</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M36" s="7">
         <v>54</v>
@@ -3283,13 +3277,13 @@
         <v>54227</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3298,13 @@
         <v>928</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3319,13 +3313,13 @@
         <v>1769</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -3334,13 +3328,13 @@
         <v>2697</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,7 +3390,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3414,7 +3408,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3429,7 +3423,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3444,7 +3438,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3453,13 @@
         <v>51232</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H40" s="7">
         <v>65</v>
@@ -3474,13 +3468,13 @@
         <v>69166</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M40" s="7">
         <v>116</v>
@@ -3489,13 +3483,13 @@
         <v>120398</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P40" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3504,13 @@
         <v>193982</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H41" s="7">
         <v>298</v>
@@ -3525,13 +3519,13 @@
         <v>306024</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M41" s="7">
         <v>499</v>
@@ -3540,13 +3534,13 @@
         <v>500007</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3555,13 @@
         <v>218417</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H42" s="7">
         <v>260</v>
@@ -3576,13 +3570,13 @@
         <v>262766</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M42" s="7">
         <v>490</v>
@@ -3591,13 +3585,13 @@
         <v>481183</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,13 +3606,13 @@
         <v>33428</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H43" s="7">
         <v>35</v>
@@ -3627,13 +3621,13 @@
         <v>36291</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M43" s="7">
         <v>71</v>
@@ -3642,13 +3636,13 @@
         <v>69719</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="P43" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3657,13 @@
         <v>3814</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -3681,10 +3675,10 @@
         <v>13</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -3693,13 +3687,13 @@
         <v>6409</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,7 +3767,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3788,7 +3782,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3803,7 +3797,7 @@
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3812,13 @@
         <v>160607</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H47" s="7">
         <v>165</v>
@@ -3833,13 +3827,13 @@
         <v>171936</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M47" s="7">
         <v>321</v>
@@ -3851,10 +3845,10 @@
         <v>283</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3863,13 @@
         <v>858706</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H48" s="7">
         <v>960</v>
@@ -3884,13 +3878,13 @@
         <v>988027</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M48" s="7">
         <v>1802</v>
@@ -3899,13 +3893,13 @@
         <v>1846733</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,13 +3914,13 @@
         <v>1874037</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H49" s="7">
         <v>1903</v>
@@ -3935,13 +3929,13 @@
         <v>1947871</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M49" s="7">
         <v>3742</v>
@@ -3950,13 +3944,13 @@
         <v>3821908</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,13 +3965,13 @@
         <v>364687</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H50" s="7">
         <v>259</v>
@@ -3986,13 +3980,13 @@
         <v>261858</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M50" s="7">
         <v>618</v>
@@ -4001,13 +3995,13 @@
         <v>626545</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,10 +4019,10 @@
         <v>65</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H51" s="7">
         <v>7</v>
@@ -4040,7 +4034,7 @@
         <v>57</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>13</v>
@@ -4052,13 +4046,13 @@
         <v>16565</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,7 +4108,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -4136,7 +4130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E4CA15-6CBD-4190-A940-161A9A1B8A95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71938A9-3A2A-43D7-9906-5401C1DC3A19}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4153,7 +4147,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4260,10 +4254,10 @@
         <v>377679</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>62</v>
@@ -4275,10 +4269,10 @@
         <v>354957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>62</v>
@@ -4290,10 +4284,10 @@
         <v>732636</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>62</v>
@@ -4317,7 +4311,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4332,22 +4326,22 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,7 +4362,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4383,22 +4377,22 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,7 +4413,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4434,22 +4428,22 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,7 +4464,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4485,22 +4479,22 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,7 +4515,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4536,22 +4530,22 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,10 +4613,10 @@
         <v>428396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>62</v>
@@ -4634,10 +4628,10 @@
         <v>499215</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>62</v>
@@ -4649,10 +4643,10 @@
         <v>927611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>62</v>
@@ -4676,7 +4670,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>328</v>
+        <v>103</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4691,7 +4685,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4706,7 +4700,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,7 +4721,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>328</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4742,7 +4736,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4757,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,7 +4772,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4793,7 +4787,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4808,7 +4802,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,7 +4823,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>328</v>
+        <v>103</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4844,7 +4838,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -4859,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,7 +4874,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>328</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4895,7 +4889,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4910,7 +4904,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,7 +4960,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -4978,10 +4972,10 @@
         <v>557252</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>62</v>
@@ -4993,10 +4987,10 @@
         <v>610447</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>62</v>
@@ -5008,10 +5002,10 @@
         <v>1167699</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>62</v>
@@ -5035,7 +5029,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5050,7 +5044,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5065,7 +5059,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,7 +5080,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5101,7 +5095,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5116,7 +5110,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,7 +5131,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5152,7 +5146,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5167,7 +5161,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,7 +5182,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5203,7 +5197,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5218,7 +5212,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,7 +5233,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5254,7 +5248,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5269,7 +5263,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,7 +5319,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5337,10 +5331,10 @@
         <v>723990</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>62</v>
@@ -5352,10 +5346,10 @@
         <v>747261</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>62</v>
@@ -5364,13 +5358,13 @@
         <v>1806</v>
       </c>
       <c r="N25" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>62</v>
@@ -5394,7 +5388,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5409,7 +5403,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5424,7 +5418,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,7 +5439,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -5460,7 +5454,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -5475,7 +5469,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,7 +5490,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5511,7 +5505,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5526,7 +5520,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,7 +5541,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5562,7 +5556,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5577,7 +5571,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,7 +5592,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5613,7 +5607,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5628,7 +5622,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,7 +5664,7 @@
         <v>1806</v>
       </c>
       <c r="N31" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>62</v>
@@ -5684,7 +5678,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5696,10 +5690,10 @@
         <v>600157</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>62</v>
@@ -5711,10 +5705,10 @@
         <v>597063</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>62</v>
@@ -5726,10 +5720,10 @@
         <v>1197220</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>62</v>
@@ -5753,7 +5747,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5783,7 +5777,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,7 +5798,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5834,7 +5828,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,7 +5849,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -5885,7 +5879,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,7 +5900,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5936,7 +5930,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,7 +5951,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -5987,7 +5981,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,7 +6037,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -6052,13 +6046,13 @@
         <v>1028</v>
       </c>
       <c r="D39" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>62</v>
@@ -6070,10 +6064,10 @@
         <v>1026637</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>62</v>
@@ -6085,10 +6079,10 @@
         <v>1724392</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>62</v>
@@ -6127,7 +6121,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -6142,7 +6136,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,7 +6172,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -6193,7 +6187,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,7 +6223,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -6244,7 +6238,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,7 +6274,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -6295,7 +6289,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,7 +6325,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -6346,7 +6340,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6358,7 +6352,7 @@
         <v>1028</v>
       </c>
       <c r="D45" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>62</v>
@@ -6414,10 +6408,10 @@
         <v>3385228</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>62</v>
@@ -6429,10 +6423,10 @@
         <v>3835581</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>62</v>
@@ -6441,13 +6435,13 @@
         <v>8743</v>
       </c>
       <c r="N46" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>62</v>
@@ -6471,7 +6465,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -6486,7 +6480,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -6501,7 +6495,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,7 +6516,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -6537,7 +6531,7 @@
         <v>12</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -6552,7 +6546,7 @@
         <v>12</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,7 +6567,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -6588,7 +6582,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -6603,7 +6597,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,7 +6618,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -6639,7 +6633,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -6654,7 +6648,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,7 +6669,7 @@
         <v>12</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -6690,7 +6684,7 @@
         <v>12</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -6705,7 +6699,7 @@
         <v>12</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -6747,7 +6741,7 @@
         <v>8743</v>
       </c>
       <c r="N52" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>62</v>
@@ -6761,7 +6755,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44_2007-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{771F5855-C18B-4347-B82D-C94B26AB777C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{750B39A1-8F72-45B2-B8FC-6BE1C6616A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3E40E620-3D7C-44B2-8F03-BDBF7F9ED861}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D218A42B-037C-4038-BD98-95956D6863C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="343">
   <si>
     <t>Población según lo que opinan de tomar el sol en 2007 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -93,25 +93,25 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>Peligroso</t>
@@ -120,919 +120,913 @@
     <t>16,94%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>17,83%</t>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>Sano y peligroso</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>Sano</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>Muy sano</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
   </si>
   <si>
     <t>25,19%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>Sano y peligroso</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>Sano</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>Muy sano</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que opinan de tomar el sol en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que opinan de tomar el sol en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
   </si>
   <si>
     <t>99,71%</t>
@@ -1483,7 +1477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57764D0A-3F37-4EE1-96E9-429F8358173D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C269B485-A537-4230-B379-6D1C9B311204}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2170,13 +2164,13 @@
         <v>112223</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>56</v>
@@ -2185,13 +2179,13 @@
         <v>58810</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>164</v>
@@ -2200,13 +2194,13 @@
         <v>171033</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,13 +2215,13 @@
         <v>812</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2257,7 +2251,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,7 +2307,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2331,7 +2325,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2346,7 +2340,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2376,13 +2370,13 @@
         <v>22894</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -2391,13 +2385,13 @@
         <v>25525</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -2406,13 +2400,13 @@
         <v>48420</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,13 +2421,13 @@
         <v>163803</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>165</v>
@@ -2442,13 +2436,13 @@
         <v>173370</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
         <v>320</v>
@@ -2457,13 +2451,13 @@
         <v>337173</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,13 +2472,13 @@
         <v>397676</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H21" s="7">
         <v>422</v>
@@ -2493,13 +2487,13 @@
         <v>441353</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M21" s="7">
         <v>810</v>
@@ -2508,13 +2502,13 @@
         <v>839028</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,13 +2523,13 @@
         <v>52421</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -2544,13 +2538,13 @@
         <v>46993</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>93</v>
@@ -2559,13 +2553,13 @@
         <v>99414</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,13 +2574,13 @@
         <v>871</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2595,13 +2589,13 @@
         <v>981</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -2610,13 +2604,13 @@
         <v>1852</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,7 +2666,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2690,7 +2684,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2735,13 +2729,13 @@
         <v>23128</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -2750,10 +2744,10 @@
         <v>22921</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>154</v>
@@ -2834,7 +2828,7 @@
         <v>275</v>
       </c>
       <c r="D28" s="7">
-        <v>297873</v>
+        <v>297872</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>167</v>
@@ -2987,7 +2981,7 @@
         <v>482</v>
       </c>
       <c r="D31" s="7">
-        <v>517238</v>
+        <v>517237</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>62</v>
@@ -3049,7 +3043,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3064,7 +3058,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3079,7 +3073,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3088,13 @@
         <v>16646</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
@@ -3109,13 +3103,13 @@
         <v>26652</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M33" s="7">
         <v>44</v>
@@ -3124,13 +3118,13 @@
         <v>43298</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3139,13 @@
         <v>127548</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H34" s="7">
         <v>131</v>
@@ -3160,13 +3154,13 @@
         <v>133846</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M34" s="7">
         <v>259</v>
@@ -3175,13 +3169,13 @@
         <v>261394</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3190,13 @@
         <v>214597</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H35" s="7">
         <v>209</v>
@@ -3211,13 +3205,13 @@
         <v>213486</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M35" s="7">
         <v>427</v>
@@ -3226,13 +3220,13 @@
         <v>428083</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3241,13 @@
         <v>25994</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
@@ -3262,13 +3256,13 @@
         <v>28233</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M36" s="7">
         <v>54</v>
@@ -3277,13 +3271,13 @@
         <v>54227</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3292,13 @@
         <v>928</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3313,13 +3307,13 @@
         <v>1769</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -3328,13 +3322,13 @@
         <v>2697</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,7 +3384,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3408,7 +3402,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3423,7 +3417,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3453,13 +3447,13 @@
         <v>51232</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H40" s="7">
         <v>65</v>
@@ -3468,13 +3462,13 @@
         <v>69166</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M40" s="7">
         <v>116</v>
@@ -3483,13 +3477,13 @@
         <v>120398</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3498,13 @@
         <v>193982</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H41" s="7">
         <v>298</v>
@@ -3519,13 +3513,13 @@
         <v>306024</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M41" s="7">
         <v>499</v>
@@ -3534,13 +3528,13 @@
         <v>500007</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,10 +3618,10 @@
         <v>265</v>
       </c>
       <c r="K43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M43" s="7">
         <v>71</v>
@@ -3636,13 +3630,13 @@
         <v>69719</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,10 +3651,10 @@
         <v>3814</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>271</v>
@@ -3675,7 +3669,7 @@
         <v>13</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>272</v>
@@ -3845,7 +3839,7 @@
         <v>283</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>284</v>
@@ -3893,13 +3887,13 @@
         <v>1846733</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3908,13 @@
         <v>1874037</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H49" s="7">
         <v>1903</v>
@@ -3929,13 +3923,13 @@
         <v>1947871</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M49" s="7">
         <v>3742</v>
@@ -3944,13 +3938,13 @@
         <v>3821908</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +3959,13 @@
         <v>364687</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H50" s="7">
         <v>259</v>
@@ -3980,13 +3974,13 @@
         <v>261858</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M50" s="7">
         <v>618</v>
@@ -3995,13 +3989,13 @@
         <v>626545</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,10 +4013,10 @@
         <v>65</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="H51" s="7">
         <v>7</v>
@@ -4034,10 +4028,10 @@
         <v>57</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="M51" s="7">
         <v>18</v>
@@ -4046,13 +4040,13 @@
         <v>16565</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,7 +4102,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -4130,7 +4124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71938A9-3A2A-43D7-9906-5401C1DC3A19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89621949-C61F-4BDD-891F-FC561A5A9337}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4147,7 +4141,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4254,10 +4248,10 @@
         <v>377679</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>62</v>
@@ -4269,10 +4263,10 @@
         <v>354957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>62</v>
@@ -4284,10 +4278,10 @@
         <v>732636</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>62</v>
@@ -4311,7 +4305,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4326,7 +4320,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4341,7 +4335,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,7 +4356,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4377,7 +4371,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4392,7 +4386,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,7 +4407,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4428,7 +4422,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4443,7 +4437,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,7 +4458,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4479,7 +4473,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4494,7 +4488,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4530,7 +4524,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4545,7 +4539,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,10 +4607,10 @@
         <v>428396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>62</v>
@@ -4628,10 +4622,10 @@
         <v>499215</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>62</v>
@@ -4643,10 +4637,10 @@
         <v>927611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>62</v>
@@ -4670,7 +4664,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4685,7 +4679,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4700,7 +4694,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,7 +4715,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4736,7 +4730,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4751,7 +4745,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,7 +4766,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4787,7 +4781,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4802,7 +4796,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,7 +4817,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4838,7 +4832,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -4853,7 +4847,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,7 +4868,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4889,7 +4883,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4904,7 +4898,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,7 +4954,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -4972,10 +4966,10 @@
         <v>557252</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>62</v>
@@ -4987,10 +4981,10 @@
         <v>610447</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>62</v>
@@ -5002,10 +4996,10 @@
         <v>1167699</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>62</v>
@@ -5029,7 +5023,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5044,7 +5038,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5059,7 +5053,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,7 +5074,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5095,7 +5089,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5110,7 +5104,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,7 +5125,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5146,7 +5140,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5161,7 +5155,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,7 +5176,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5197,7 +5191,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5212,7 +5206,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,7 +5227,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5248,7 +5242,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5263,7 +5257,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,7 +5313,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5331,10 +5325,10 @@
         <v>723990</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>62</v>
@@ -5346,10 +5340,10 @@
         <v>747261</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>62</v>
@@ -5361,10 +5355,10 @@
         <v>1471251</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>62</v>
@@ -5388,7 +5382,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5403,7 +5397,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5418,7 +5412,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,7 +5433,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -5454,7 +5448,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -5469,7 +5463,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,7 +5484,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5505,7 +5499,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5520,7 +5514,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,7 +5535,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5556,7 +5550,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5571,7 +5565,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,7 +5586,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5607,7 +5601,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5622,7 +5616,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,10 +5684,10 @@
         <v>600157</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>62</v>
@@ -5705,10 +5699,10 @@
         <v>597063</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>62</v>
@@ -5720,10 +5714,10 @@
         <v>1197220</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>62</v>
@@ -5747,7 +5741,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5777,7 +5771,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,7 +5792,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -5828,7 +5822,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,7 +5843,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -5879,7 +5873,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,7 +5894,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5930,7 +5924,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,7 +5945,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -5981,7 +5975,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,7 +6031,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -6049,10 +6043,10 @@
         <v>697755</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>62</v>
@@ -6064,10 +6058,10 @@
         <v>1026637</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>62</v>
@@ -6079,10 +6073,10 @@
         <v>1724392</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>62</v>
@@ -6121,7 +6115,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -6136,7 +6130,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,7 +6166,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -6187,7 +6181,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,7 +6217,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -6238,7 +6232,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,7 +6268,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -6289,7 +6283,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,7 +6319,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -6340,7 +6334,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,10 +6402,10 @@
         <v>3385228</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>62</v>
@@ -6423,10 +6417,10 @@
         <v>3835581</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>62</v>
@@ -6438,10 +6432,10 @@
         <v>7220808</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>62</v>
@@ -6480,7 +6474,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -6495,7 +6489,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,7 +6525,7 @@
         <v>12</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -6546,7 +6540,7 @@
         <v>12</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,7 +6576,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -6597,7 +6591,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,7 +6627,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -6648,7 +6642,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,7 +6678,7 @@
         <v>12</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -6699,7 +6693,7 @@
         <v>12</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -6755,7 +6749,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FBECDA2-03D6-4164-88DA-E857DE6E478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0985B60E-C0D1-4B9A-B0D5-0EDE185FD0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A93C9A7B-3C16-473D-8015-D45A14EBC90E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{52FC3584-24DE-483E-9C76-454C8DF70CAF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="351">
   <si>
     <t>Población según lo que opinan de tomar el sol en 2007 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Muy peligroso</t>
@@ -218,7 +218,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>4,9%</t>
@@ -344,7 +344,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>3,59%</t>
@@ -464,7 +464,7 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>4,47%</t>
@@ -593,7 +593,7 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>4,32%</t>
@@ -716,130 +716,256 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
   </si>
   <si>
     <t>4,91%</t>
@@ -927,9 +1053,6 @@
   </si>
   <si>
     <t>12,37%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
   </si>
   <si>
     <t>6,92%</t>
@@ -1377,8 +1500,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D706F0B3-3D0F-41DD-8FCD-5D2FD91EB720}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA31CEA0-BF33-44F0-A6F7-0BCB82409089}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2524,7 +2647,7 @@
         <v>275</v>
       </c>
       <c r="D24" s="7">
-        <v>297873</v>
+        <v>297872</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>161</v>
@@ -2677,7 +2800,7 @@
         <v>482</v>
       </c>
       <c r="D27" s="7">
-        <v>517238</v>
+        <v>517237</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -3035,10 +3158,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D34" s="7">
-        <v>51232</v>
+        <v>26556</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>227</v>
@@ -3050,34 +3173,34 @@
         <v>229</v>
       </c>
       <c r="H34" s="7">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I34" s="7">
-        <v>69166</v>
+        <v>23536</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>50</v>
+      </c>
+      <c r="N34" s="7">
+        <v>50092</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="M34" s="7">
-        <v>116</v>
-      </c>
-      <c r="N34" s="7">
-        <v>120398</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,49 +3209,49 @@
         <v>19</v>
       </c>
       <c r="C35" s="7">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="D35" s="7">
-        <v>193982</v>
+        <v>100733</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7">
+        <v>166</v>
+      </c>
+      <c r="I35" s="7">
+        <v>153665</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H35" s="7">
-        <v>298</v>
-      </c>
-      <c r="I35" s="7">
-        <v>306024</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>272</v>
+      </c>
+      <c r="N35" s="7">
+        <v>254398</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="M35" s="7">
-        <v>499</v>
-      </c>
-      <c r="N35" s="7">
-        <v>500007</v>
-      </c>
-      <c r="O35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,49 +3260,49 @@
         <v>29</v>
       </c>
       <c r="C36" s="7">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="D36" s="7">
-        <v>218417</v>
+        <v>143817</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>159</v>
+      </c>
+      <c r="I36" s="7">
+        <v>146037</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H36" s="7">
-        <v>260</v>
-      </c>
-      <c r="I36" s="7">
-        <v>262766</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>309</v>
+      </c>
+      <c r="N36" s="7">
+        <v>289853</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M36" s="7">
-        <v>490</v>
-      </c>
-      <c r="N36" s="7">
-        <v>481183</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,43 +3311,43 @@
         <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D37" s="7">
-        <v>33428</v>
+        <v>18919</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>19</v>
+      </c>
+      <c r="I37" s="7">
+        <v>18227</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H37" s="7">
-        <v>35</v>
-      </c>
-      <c r="I37" s="7">
-        <v>36291</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>39</v>
+      </c>
+      <c r="N37" s="7">
+        <v>37146</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="M37" s="7">
-        <v>71</v>
-      </c>
-      <c r="N37" s="7">
-        <v>69719</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>259</v>
@@ -3239,40 +3362,40 @@
         <v>49</v>
       </c>
       <c r="C38" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>3814</v>
+        <v>965</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>261</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>262</v>
       </c>
       <c r="H38" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>2595</v>
+        <v>1470</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>263</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>264</v>
       </c>
       <c r="M38" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N38" s="7">
-        <v>6409</v>
+        <v>2434</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>265</v>
@@ -3290,10 +3413,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>522</v>
+        <v>302</v>
       </c>
       <c r="D39" s="7">
-        <v>500873</v>
+        <v>290990</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>59</v>
@@ -3305,10 +3428,10 @@
         <v>59</v>
       </c>
       <c r="H39" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I39" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>59</v>
@@ -3320,10 +3443,10 @@
         <v>59</v>
       </c>
       <c r="M39" s="7">
-        <v>1183</v>
+        <v>673</v>
       </c>
       <c r="N39" s="7">
-        <v>1177716</v>
+        <v>633924</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>59</v>
@@ -3337,55 +3460,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>268</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="D40" s="7">
-        <v>160607</v>
+        <v>24676</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H40" s="7">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="I40" s="7">
-        <v>171936</v>
+        <v>45631</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="M40" s="7">
-        <v>321</v>
+        <v>66</v>
       </c>
       <c r="N40" s="7">
-        <v>332543</v>
+        <v>70306</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,49 +3517,49 @@
         <v>19</v>
       </c>
       <c r="C41" s="7">
-        <v>842</v>
+        <v>95</v>
       </c>
       <c r="D41" s="7">
-        <v>858706</v>
+        <v>93249</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H41" s="7">
-        <v>960</v>
+        <v>132</v>
       </c>
       <c r="I41" s="7">
-        <v>988027</v>
+        <v>152359</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M41" s="7">
-        <v>1802</v>
+        <v>227</v>
       </c>
       <c r="N41" s="7">
-        <v>1846733</v>
+        <v>245608</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,49 +3568,49 @@
         <v>29</v>
       </c>
       <c r="C42" s="7">
-        <v>1839</v>
+        <v>80</v>
       </c>
       <c r="D42" s="7">
-        <v>1874037</v>
+        <v>74600</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H42" s="7">
-        <v>1903</v>
+        <v>101</v>
       </c>
       <c r="I42" s="7">
-        <v>1947871</v>
+        <v>116729</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M42" s="7">
-        <v>3742</v>
+        <v>181</v>
       </c>
       <c r="N42" s="7">
-        <v>3821908</v>
+        <v>191329</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,49 +3619,49 @@
         <v>39</v>
       </c>
       <c r="C43" s="7">
-        <v>359</v>
+        <v>16</v>
       </c>
       <c r="D43" s="7">
-        <v>364687</v>
+        <v>14508</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H43" s="7">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I43" s="7">
-        <v>261858</v>
+        <v>18064</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M43" s="7">
-        <v>618</v>
+        <v>32</v>
       </c>
       <c r="N43" s="7">
-        <v>626545</v>
+        <v>32573</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,49 +3670,49 @@
         <v>49</v>
       </c>
       <c r="C44" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D44" s="7">
-        <v>10421</v>
+        <v>2850</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>99</v>
+        <v>304</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H44" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I44" s="7">
-        <v>6144</v>
+        <v>1125</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>51</v>
+        <v>223</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>305</v>
+        <v>53</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="M44" s="7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N44" s="7">
-        <v>16565</v>
+        <v>3974</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>307</v>
+        <v>183</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,63 +3721,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>220</v>
+      </c>
+      <c r="D45" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="7">
+        <v>290</v>
+      </c>
+      <c r="I45" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M45" s="7">
+        <v>510</v>
+      </c>
+      <c r="N45" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>156</v>
+      </c>
+      <c r="D46" s="7">
+        <v>160607</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H46" s="7">
+        <v>165</v>
+      </c>
+      <c r="I46" s="7">
+        <v>171936</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M46" s="7">
+        <v>321</v>
+      </c>
+      <c r="N46" s="7">
+        <v>332543</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="7">
+        <v>842</v>
+      </c>
+      <c r="D47" s="7">
+        <v>858706</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H47" s="7">
+        <v>960</v>
+      </c>
+      <c r="I47" s="7">
+        <v>988027</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M47" s="7">
+        <v>1802</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1846733</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1839</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1874037</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1903</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1947871</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="M48" s="7">
+        <v>3742</v>
+      </c>
+      <c r="N48" s="7">
+        <v>3821908</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="7">
+        <v>359</v>
+      </c>
+      <c r="D49" s="7">
+        <v>364687</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H49" s="7">
+        <v>259</v>
+      </c>
+      <c r="I49" s="7">
+        <v>261858</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M49" s="7">
+        <v>618</v>
+      </c>
+      <c r="N49" s="7">
+        <v>626545</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>11</v>
+      </c>
+      <c r="D50" s="7">
+        <v>10421</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H50" s="7">
+        <v>7</v>
+      </c>
+      <c r="I50" s="7">
+        <v>6144</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M50" s="7">
+        <v>18</v>
+      </c>
+      <c r="N50" s="7">
+        <v>16565</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3207</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3268459</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7">
         <v>3294</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3375835</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="7">
         <v>6501</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6644294</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>309</v>
+      <c r="O51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
